--- a/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
+++ b/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,13 +2535,1965 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>52</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>14.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
+++ b/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,2029 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.0614</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方匠心优选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4061</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010846</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0274</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7293</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7258</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6879</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002258</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5992</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4486</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4032</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004357</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方智慧精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3885</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006921</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方智诚混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3657</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3551</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010826</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成产业趋势混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3259</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005810</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2739</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>34.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1626</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>38.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1436</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011221</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方匠心优选股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1378</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010847</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>60.36</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1351</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>78.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1213</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014189</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方专精特新混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1023</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011384</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方远见回报股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1014</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1002</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001692</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方国策动力股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0959</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>013200</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方均衡优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>33.40</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>53.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0827</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011367</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>创金合信群力一年定期开放混合（MOM）A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0799</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011155</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>金鹰责任投资混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010827</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>大成产业趋势混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>34.45</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004434</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>73.11</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>014294</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>南方北交所精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0523</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>014141</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>大成新能源混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002681</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>81.63</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>38.92</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005811</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008846</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>011156</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>金鹰责任投资混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>014190</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>南方专精特新混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>30.05</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002682</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>81.63</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>011385</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>南方远见回报股票C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.80</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004435</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>73.11</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>011874</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博时先进制造混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>73.08</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>013201</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>南方均衡优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>33.40</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>011368</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>创金合信群力一年定期开放混合（MOM）C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>008847</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>大成民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>011875</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>博时先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>73.08</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>014142</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>大成新能源混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4440,64 +2476,2028 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6879</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3551</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.88</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
+++ b/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>52</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>14.88</v>
       </c>
     </row>
@@ -515,6 +532,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2470,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
+++ b/数据整理/stocks/A股/上证主板/603279-景津装备.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>10.66</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>52</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>14.88</v>
       </c>
     </row>
@@ -532,6 +549,2190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5635</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3898</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013853</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013854</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2295,7 +4496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4251,7 +6452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
